--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile3.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile3.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>민희진 기자회견 옷, 왜 품절됐나 봤더니.. 이것 때문이었네 [1일IT템]</t>
+    <t>NIPA, 의료AI ‘닥터앤서’ 인도네시아 진출 협력 구축</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>7시간전</t>
   </si>
   <si>
-    <t>9</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
